--- a/주성엔지니어링.xlsx
+++ b/주성엔지니어링.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3681D858-7B4F-41C8-90C5-33D9E43C95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE8963-EC01-423B-8011-64FAF3121584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
     <t>프로젝트가 목표를 이해하고 장비의 동작 방식을 명확하게 파악함과 동시에 궁금한 점은 질문 리스트로 제작하여 정리</t>
   </si>
@@ -633,7 +633,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>해야 할일 Prototype 모듈 UI 통합</t>
+    <t>회사(주성) 측 CVD 장비 설명 및 프로젝트 설계 방법 피드백</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타입 UI 통합</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타입 UI 추가 사항 및 예외 처리 추가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백을 바탕으로 시뮬레이터 설계 아이디어 회의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어 회의를 바탕으로 역할 분담</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 동작 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 프로젝트 제작</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -1935,13 +1959,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,193 +2048,349 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2242,148 +2459,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2395,59 +2510,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2994,7 +3076,7 @@
   <dimension ref="B3:AG42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B41"/>
+      <selection activeCell="Q23" sqref="Q23:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3006,74 +3088,74 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="23"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="50"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
     </row>
     <row r="5" spans="2:33" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3174,366 +3256,366 @@
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="42" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="38" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="42" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="38" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="38" t="s">
+      <c r="W6" s="24"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="49"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="27"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="47"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="28"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="46"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="44"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="47"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="28"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="46"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="44"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="47"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="28"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="15"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="45"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="48"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="46"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="15"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="45"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="16"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="64"/>
     </row>
     <row r="16" spans="2:33" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
@@ -3574,74 +3656,74 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="23"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="50"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="26"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
     </row>
     <row r="20" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
@@ -3740,364 +3822,364 @@
       <c r="AG20" s="5"/>
     </row>
     <row r="21" spans="2:33" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="53" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="53" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="T21" s="54"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="53" t="s">
+      <c r="T21" s="22"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="49"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="27"/>
     </row>
     <row r="22" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="47"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="28"/>
     </row>
     <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="49"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="27"/>
     </row>
     <row r="24" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="47"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="28"/>
     </row>
     <row r="25" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="49"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="27"/>
     </row>
     <row r="26" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="47"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="28"/>
     </row>
     <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="55"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="19"/>
     </row>
     <row r="28" spans="2:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="61"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="56"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="20"/>
     </row>
     <row r="29" spans="2:33" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="23"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="50"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="26"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
     </row>
     <row r="33" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
@@ -4198,369 +4280,480 @@
       </c>
     </row>
     <row r="34" spans="2:33" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="63" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="53" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="63" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="53" t="s">
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="R34" s="54"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="53" t="s">
+      <c r="R34" s="22"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="53" t="s">
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="49"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="27"/>
     </row>
     <row r="35" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="52"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="47"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="28"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="49"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="27"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="47"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="28"/>
     </row>
     <row r="38" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="49"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="27"/>
     </row>
     <row r="39" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="38"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="47"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="28"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="55"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="19"/>
     </row>
     <row r="41" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="31"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="56"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="20"/>
     </row>
     <row r="42" spans="2:33" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="269">
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="AA40:AA41"/>
-    <mergeCell ref="AB40:AB41"/>
-    <mergeCell ref="AC40:AC41"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="Z40:Z41"/>
-    <mergeCell ref="AE34:AF41"/>
-    <mergeCell ref="AB34:AB35"/>
-    <mergeCell ref="AC34:AC35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Z34:Z35"/>
-    <mergeCell ref="AG34:AG35"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="Z36:Z37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="AB36:AB37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="Q34:R41"/>
-    <mergeCell ref="X34:Y41"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="AG14:AG15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B3:AG4"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B18:AG19"/>
+    <mergeCell ref="B31:AG32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C6:I15"/>
+    <mergeCell ref="O6:P15"/>
+    <mergeCell ref="K6:K15"/>
+    <mergeCell ref="V6:W15"/>
+    <mergeCell ref="AC6:AD15"/>
+    <mergeCell ref="Q6:Q15"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AE14:AE15"/>
+    <mergeCell ref="AF14:AF15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AG21:AG22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="Y21:Y22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AF21:AF22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Z21:AA28"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AE25:AE26"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y26"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AB25:AB26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AE27:AE28"/>
+    <mergeCell ref="AF27:AF28"/>
+    <mergeCell ref="J21:N28"/>
+    <mergeCell ref="E21:F28"/>
+    <mergeCell ref="S21:T28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AD25:AD26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="AC27:AC28"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="C34:D41"/>
@@ -4585,184 +4778,73 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AD25:AD26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="AE25:AE26"/>
-    <mergeCell ref="AF25:AF26"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y26"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AB25:AB26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AF27:AF28"/>
-    <mergeCell ref="J21:N28"/>
-    <mergeCell ref="E21:F28"/>
-    <mergeCell ref="S21:T28"/>
-    <mergeCell ref="AG21:AG22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AF21:AF22"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Z21:AA28"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="B18:AG19"/>
-    <mergeCell ref="B31:AG32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C6:I15"/>
-    <mergeCell ref="O6:P15"/>
-    <mergeCell ref="K6:K15"/>
-    <mergeCell ref="V6:W15"/>
-    <mergeCell ref="AC6:AD15"/>
-    <mergeCell ref="Q6:Q15"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AE14:AE15"/>
-    <mergeCell ref="AF14:AF15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="AG14:AG15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B3:AG4"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="Q34:R41"/>
+    <mergeCell ref="X34:Y41"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="AA40:AA41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AC40:AC41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AE34:AF41"/>
+    <mergeCell ref="AB34:AB35"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Z34:Z35"/>
+    <mergeCell ref="AG34:AG35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -4775,8 +4857,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4786,988 +4868,905 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="3:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="75"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="75" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="70"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="70"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="133"/>
     </row>
     <row r="9" spans="3:12" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="65" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="137"/>
     </row>
     <row r="10" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="70"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="140"/>
     </row>
     <row r="11" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="89" t="s">
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
     </row>
     <row r="12" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="70"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="89" t="s">
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="140"/>
     </row>
     <row r="13" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="89" t="s">
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="88"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
     </row>
     <row r="14" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="72"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="90" t="s">
+      <c r="E14" s="149"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
     </row>
     <row r="15" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:12" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" spans="3:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="116"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
     </row>
     <row r="18" spans="3:13" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="106" t="s">
+      <c r="D18" s="125"/>
+      <c r="E18" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107" t="s">
+      <c r="F18" s="122"/>
+      <c r="G18" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107" t="s">
+      <c r="H18" s="122"/>
+      <c r="I18" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107" t="s">
+      <c r="J18" s="122"/>
+      <c r="K18" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="123"/>
     </row>
     <row r="19" spans="3:13" ht="22.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
     </row>
     <row r="20" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C20" s="103"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="106"/>
     </row>
     <row r="21" spans="3:13" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="119" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="126" t="s">
+      <c r="E21" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C22" s="103"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="68"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="109"/>
     </row>
     <row r="23" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="119" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="68"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
     </row>
     <row r="24" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C24" s="103"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67" t="s">
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="68"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="109"/>
     </row>
     <row r="25" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="119" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="68"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
     </row>
     <row r="26" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C26" s="103"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109" t="s">
+      <c r="F26" s="110"/>
+      <c r="G26" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109" t="s">
+      <c r="H26" s="110"/>
+      <c r="I26" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109" t="s">
+      <c r="J26" s="110"/>
+      <c r="K26" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="L26" s="110"/>
+      <c r="L26" s="112"/>
     </row>
     <row r="27" spans="3:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="119" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109" t="s">
+      <c r="F27" s="110"/>
+      <c r="G27" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="66" t="s">
+      <c r="H27" s="110"/>
+      <c r="I27" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109" t="s">
+      <c r="J27" s="110"/>
+      <c r="K27" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="110"/>
+      <c r="L27" s="112"/>
     </row>
     <row r="28" spans="3:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="105"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="167" t="s">
+      <c r="E28" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="165" t="s">
+      <c r="F28" s="127"/>
+      <c r="G28" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="166"/>
-      <c r="I28" s="165" t="s">
+      <c r="H28" s="127"/>
+      <c r="I28" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="J28" s="166"/>
-      <c r="K28" s="113" t="s">
+      <c r="J28" s="127"/>
+      <c r="K28" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="114"/>
+      <c r="L28" s="95"/>
     </row>
     <row r="29" spans="3:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="3:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="168" t="s">
-        <v>144</v>
-      </c>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="3:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="100"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="136"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="3:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="73" t="s">
+      <c r="D32" s="80"/>
+      <c r="E32" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74" t="s">
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74" t="s">
+      <c r="H32" s="77"/>
+      <c r="I32" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74" t="s">
+      <c r="J32" s="77"/>
+      <c r="K32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="75"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="3:12" ht="24.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="75" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="139"/>
+      <c r="E33" s="172" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="174"/>
     </row>
     <row r="34" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C34" s="70"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
+      <c r="E34" s="171" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="169"/>
+      <c r="L34" s="170"/>
     </row>
     <row r="35" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="65" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="E35" s="171" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="169"/>
+      <c r="L35" s="170"/>
     </row>
     <row r="36" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C36" s="70"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="E36" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="170"/>
     </row>
     <row r="37" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
+      <c r="E37" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="170"/>
     </row>
     <row r="38" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C38" s="70"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="E38" s="171" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="170"/>
     </row>
     <row r="39" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="139"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C40" s="70"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="139"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="3:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="65" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="142" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="143"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C42" s="72"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="145"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
     </row>
     <row r="44" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="100" t="s">
+      <c r="C44" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="140" t="s">
+      <c r="D44" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="141"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
     </row>
     <row r="45" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="100"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="73" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74" t="s">
+      <c r="F46" s="77"/>
+      <c r="G46" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74" t="s">
+      <c r="H46" s="77"/>
+      <c r="I46" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74" t="s">
+      <c r="J46" s="77"/>
+      <c r="K46" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="75"/>
+      <c r="L46" s="78"/>
     </row>
     <row r="47" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="75" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="139"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="71"/>
     </row>
     <row r="48" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C48" s="70"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="139"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="65" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="139"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C50" s="70"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="71"/>
     </row>
     <row r="51" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="71" t="s">
+      <c r="C51" s="65" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="139"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="72"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="71"/>
     </row>
     <row r="53" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="139"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C54" s="70"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="137"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="139"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="71"/>
     </row>
     <row r="55" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="65" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="137"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="139"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="71"/>
     </row>
     <row r="56" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="72"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="147"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="72"/>
+      <c r="L56" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:L45"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:L31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:L17"/>
-    <mergeCell ref="E19:L20"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="E25:L25"/>
+  <mergeCells count="140">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E7:L8"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E11:H12"/>
+    <mergeCell ref="E13:H14"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:L3"/>
     <mergeCell ref="C19:C20"/>
@@ -5792,25 +5791,103 @@
     <mergeCell ref="I24:L24"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E7:L8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E11:H12"/>
-    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:L17"/>
+    <mergeCell ref="E19:L20"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E25:L25"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:L31"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:L45"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -5836,814 +5913,984 @@
   <sheetData>
     <row r="2" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="100"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="75"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="75" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C7" s="70"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="65" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C9" s="70"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="65" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="72"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="65" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="151" t="s">
+      <c r="E12" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="158"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
     </row>
     <row r="13" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C13" s="70"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="161"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
     </row>
     <row r="14" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="65" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="72"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="160"/>
     </row>
     <row r="16" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="100"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="73" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="77"/>
+      <c r="I19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74" t="s">
+      <c r="J19" s="77"/>
+      <c r="K19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="75" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="151" t="s">
+      <c r="E20" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="162"/>
     </row>
     <row r="21" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="70"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="165"/>
     </row>
     <row r="22" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="65" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="139"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="71"/>
     </row>
     <row r="23" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C23" s="70"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="71"/>
     </row>
     <row r="24" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="65" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="71"/>
     </row>
     <row r="25" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="72"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="71"/>
     </row>
     <row r="27" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C27" s="70"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="71"/>
     </row>
     <row r="28" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="65" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="71"/>
     </row>
     <row r="29" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="72"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="150"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="100"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
     </row>
     <row r="33" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="73" t="s">
+      <c r="D33" s="80"/>
+      <c r="E33" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74" t="s">
+      <c r="H33" s="77"/>
+      <c r="I33" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="75"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="75" t="s">
         <v>82</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C35" s="70"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="65" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C37" s="70"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="65" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="71"/>
     </row>
     <row r="39" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="72"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="139"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="65" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="139"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C41" s="70"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="139"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="65" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="139"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="71"/>
     </row>
     <row r="43" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="72"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="150"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="168"/>
     </row>
     <row r="44" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="140" t="s">
+      <c r="D45" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="100"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
     </row>
     <row r="47" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="73" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74" t="s">
+      <c r="F47" s="77"/>
+      <c r="G47" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74" t="s">
+      <c r="H47" s="77"/>
+      <c r="I47" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74" t="s">
+      <c r="J47" s="77"/>
+      <c r="K47" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="75"/>
+      <c r="L47" s="78"/>
     </row>
     <row r="48" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="75" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="139"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C49" s="70"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="139"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="65" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="71"/>
     </row>
     <row r="51" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C51" s="70"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="139"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="65" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="137"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="71"/>
     </row>
     <row r="53" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="72"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="139"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="65" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="139"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="71"/>
     </row>
     <row r="55" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C55" s="70"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="137"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="139"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="71"/>
     </row>
     <row r="56" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="65" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="137"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="139"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="71"/>
     </row>
     <row r="57" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="72"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="148"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="148"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="150"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E12:L15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:L4"/>
     <mergeCell ref="C5:D5"/>
@@ -6660,176 +6907,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E12:L15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -6855,850 +6932,956 @@
   <sheetData>
     <row r="2" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="100"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="75"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="153"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
     </row>
     <row r="7" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="70"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="165"/>
     </row>
     <row r="8" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="139"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C9" s="70"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="139"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="139"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="72"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="139"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="65" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="139"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C13" s="70"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="139"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="139"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="72"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="150"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="100"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="73" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74" t="s">
+      <c r="H19" s="77"/>
+      <c r="I19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74" t="s">
+      <c r="J19" s="77"/>
+      <c r="K19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="75"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="75" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="151" t="s">
+      <c r="E20" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="153"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="162"/>
     </row>
     <row r="21" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="70"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="164"/>
+      <c r="L21" s="165"/>
     </row>
     <row r="22" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="65" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="139"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="71"/>
     </row>
     <row r="23" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C23" s="70"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="139"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="71"/>
     </row>
     <row r="24" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="65" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="139"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="71"/>
     </row>
     <row r="25" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="72"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="139"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="65" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="139"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="71"/>
     </row>
     <row r="27" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C27" s="70"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="139"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="71"/>
     </row>
     <row r="28" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="65" t="s">
         <v>101</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="139"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="71"/>
     </row>
     <row r="29" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="72"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="150"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="100"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
     </row>
     <row r="33" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="73" t="s">
+      <c r="D33" s="80"/>
+      <c r="E33" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74" t="s">
+      <c r="H33" s="77"/>
+      <c r="I33" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="75"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="3:12" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="75" t="s">
         <v>102</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C35" s="70"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="65" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C37" s="70"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="139"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="65" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="139"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="71"/>
     </row>
     <row r="39" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="72"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138"/>
-      <c r="L39" s="139"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="65" t="s">
         <v>105</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="139"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="3:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="C41" s="70"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="139"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="65" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="139"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="71"/>
     </row>
     <row r="43" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="72"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="150"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="168"/>
     </row>
     <row r="44" spans="3:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="140" t="s">
+      <c r="D45" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="3:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="100"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
     </row>
     <row r="47" spans="3:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="73" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74" t="s">
+      <c r="F47" s="77"/>
+      <c r="G47" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74" t="s">
+      <c r="H47" s="77"/>
+      <c r="I47" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74" t="s">
+      <c r="J47" s="77"/>
+      <c r="K47" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="75"/>
+      <c r="L47" s="78"/>
     </row>
     <row r="48" spans="3:12" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="75" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="139"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="70"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="139"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="71"/>
     </row>
     <row r="50" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="71"/>
     </row>
     <row r="51" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="70"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="139"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="71"/>
     </row>
     <row r="52" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="137"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="71"/>
     </row>
     <row r="53" spans="3:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="72"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
-      <c r="J53" s="138"/>
-      <c r="K53" s="138"/>
-      <c r="L53" s="139"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="65" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
-      <c r="J54" s="138"/>
-      <c r="K54" s="138"/>
-      <c r="L54" s="139"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="71"/>
     </row>
     <row r="55" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="70"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="137"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="138"/>
-      <c r="L55" s="139"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="71"/>
     </row>
     <row r="56" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="65" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E56" s="137"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="139"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="71"/>
     </row>
     <row r="57" spans="3:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="72"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="148"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="148"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="150"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:L4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:L7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:L21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:L18"/>
     <mergeCell ref="C19:D19"/>
@@ -7715,148 +7898,42 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:L21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:L4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:L7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
